--- a/Assets/SaveData/ExcelFiles/MergeMode/StageEnemy.xlsx
+++ b/Assets/SaveData/ExcelFiles/MergeMode/StageEnemy.xlsx
@@ -49,11 +49,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,47 +316,47 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>101.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
@@ -367,13 +367,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>101.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1.0</v>
       </c>
       <c r="D4" s="1">
@@ -384,13 +384,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>101.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1">
@@ -401,13 +401,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>101.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.0</v>
       </c>
       <c r="D6" s="1">
@@ -477,10 +477,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="E3" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +511,10 @@
         <v>1.0</v>
       </c>
       <c r="D5" s="1">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E5" s="1">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,44 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" s="1">
-        <v>30.0</v>
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,16 +622,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1">
-        <v>103.0</v>
+        <v>101.0</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" s="1">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -605,16 +639,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1">
-        <v>103.0</v>
+        <v>101.0</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
       </c>
       <c r="D4" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="1">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="5">
@@ -622,16 +656,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1">
-        <v>103.0</v>
+        <v>101.0</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
       <c r="D5" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E5" s="1">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
@@ -645,10 +679,61 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E6" s="1">
-        <v>30.0</v>
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -667,54 +752,207 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1.0</v>
       </c>
       <c r="B3" s="1">
-        <v>201.0</v>
-      </c>
-      <c r="C3" s="2">
+        <v>102.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>101.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>103.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>103.0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>101.0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>101.0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>102.0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="E3" s="2">
-        <v>15.0</v>
+      <c r="B12" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>36.0</v>
       </c>
     </row>
   </sheetData>
@@ -733,54 +971,54 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>201.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>
@@ -799,87 +1037,87 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>201.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>-5.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>201.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>201.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2.0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>5.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.0</v>
       </c>
     </row>

--- a/Assets/SaveData/ExcelFiles/MergeMode/StageEnemy.xlsx
+++ b/Assets/SaveData/ExcelFiles/MergeMode/StageEnemy.xlsx
@@ -359,8 +359,8 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>10.0</v>
+      <c r="D3" s="2">
+        <v>10.5</v>
       </c>
       <c r="E3" s="1">
         <v>15.0</v>
@@ -410,8 +410,8 @@
       <c r="C6" s="1">
         <v>1.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>10.0</v>
+      <c r="D6" s="2">
+        <v>10.5</v>
       </c>
       <c r="E6" s="1">
         <v>30.0</v>
@@ -644,8 +644,8 @@
       <c r="C4" s="1">
         <v>1.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>10.0</v>
+      <c r="D4" s="2">
+        <v>10.5</v>
       </c>
       <c r="E4" s="1">
         <v>12.0</v>
@@ -1015,10 +1015,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="2">
-        <v>10.0</v>
+        <v>10.5</v>
       </c>
       <c r="E3" s="2">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -1080,11 +1080,11 @@
       <c r="C3" s="1">
         <v>2.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>-5.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.0</v>
+      <c r="D3" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
@@ -1097,11 +1097,11 @@
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
+      <c r="D4" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
@@ -1114,11 +1114,11 @@
       <c r="C5" s="1">
         <v>2.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
+      <c r="D5" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
